--- a/datamining/final_data/tfidf1958_nltk.xlsx
+++ b/datamining/final_data/tfidf1958_nltk.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CH27"/>
+  <dimension ref="A1:BN27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,410 +452,310 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>for</t>
+          <t>gifted-child</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>gifted-child</t>
+          <t>guidance</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>guidance</t>
+          <t>services</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>in</t>
+          <t>book</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>services</t>
+          <t>common-sense</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>the</t>
+          <t>gifted-children</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>kough</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>book</t>
+          <t>review</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>common-sense</t>
+          <t>primary-school</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>gifted-children</t>
+          <t>serves</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>page</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>kough</t>
+          <t>parents</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>review</t>
+          <t>elementary</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>primary-school</t>
+          <t>gifted</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>serves</t>
+          <t>pupils</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>page</t>
+          <t>reactions</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>parents</t>
+          <t>read</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>elementary</t>
+          <t>want</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>gifted</t>
+          <t>helping</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>of</t>
+          <t>best</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>pupils</t>
+          <t>motivated</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>reactions</t>
+          <t>college</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>read</t>
+          <t>honors</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>want</t>
+          <t>michigan-state-university</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>will</t>
+          <t>arts</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>you</t>
+          <t>literature</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>helping</t>
+          <t>michigan</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>be</t>
+          <t>science</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>best</t>
+          <t>university</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>can</t>
+          <t>child</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>do</t>
+          <t>level</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>how</t>
+          <t>programs</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>motivated</t>
+          <t>education</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>their</t>
+          <t>havighurst</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>to</t>
+          <t>rj</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>at</t>
+          <t>acceleration</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>college</t>
+          <t>laboratory</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>honors</t>
+          <t>students</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>michigan-state-university</t>
+          <t>superior</t>
         </is>
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t>arts</t>
+          <t>wisconsin</t>
         </is>
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
-          <t>literature</t>
+          <t>florida</t>
         </is>
       </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
-          <t>michigan</t>
+          <t>something</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
         <is>
-          <t>science</t>
+          <t>camp</t>
         </is>
       </c>
       <c r="AV1" s="1" t="inlineStr">
         <is>
-          <t>university</t>
+          <t>summer</t>
         </is>
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
-          <t>child</t>
+          <t>katherine</t>
         </is>
       </c>
       <c r="AX1" s="1" t="inlineStr">
         <is>
-          <t>level</t>
+          <t>mary</t>
         </is>
       </c>
       <c r="AY1" s="1" t="inlineStr">
         <is>
-          <t>programs</t>
+          <t>collaborate</t>
         </is>
       </c>
       <c r="AZ1" s="1" t="inlineStr">
         <is>
-          <t>education</t>
+          <t>high-school</t>
         </is>
       </c>
       <c r="BA1" s="1" t="inlineStr">
         <is>
-          <t>havighurst</t>
+          <t>illinois</t>
         </is>
       </c>
       <c r="BB1" s="1" t="inlineStr">
         <is>
-          <t>rj</t>
+          <t>jacksonville</t>
         </is>
       </c>
       <c r="BC1" s="1" t="inlineStr">
         <is>
-          <t>acceleration</t>
+          <t>macmurray</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
         <is>
-          <t>laboratory</t>
+          <t>program</t>
         </is>
       </c>
       <c r="BE1" s="1" t="inlineStr">
         <is>
-          <t>students</t>
+          <t>english</t>
         </is>
       </c>
       <c r="BF1" s="1" t="inlineStr">
         <is>
-          <t>superior</t>
+          <t>senior</t>
         </is>
       </c>
       <c r="BG1" s="1" t="inlineStr">
         <is>
-          <t>wisconsin</t>
+          <t>bright</t>
         </is>
       </c>
       <c r="BH1" s="1" t="inlineStr">
         <is>
-          <t>doing</t>
+          <t>cutts</t>
         </is>
       </c>
       <c r="BI1" s="1" t="inlineStr">
         <is>
-          <t>florida</t>
+          <t>moseley</t>
         </is>
       </c>
       <c r="BJ1" s="1" t="inlineStr">
         <is>
-          <t>is</t>
+          <t>ne</t>
         </is>
       </c>
       <c r="BK1" s="1" t="inlineStr">
         <is>
-          <t>something</t>
+          <t>teaching</t>
         </is>
       </c>
       <c r="BL1" s="1" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>dehaan</t>
         </is>
       </c>
       <c r="BM1" s="1" t="inlineStr">
         <is>
-          <t>camp</t>
+          <t>educating</t>
         </is>
       </c>
       <c r="BN1" s="1" t="inlineStr">
-        <is>
-          <t>summer</t>
-        </is>
-      </c>
-      <c r="BO1" s="1" t="inlineStr">
-        <is>
-          <t>katherine</t>
-        </is>
-      </c>
-      <c r="BP1" s="1" t="inlineStr">
-        <is>
-          <t>mary</t>
-        </is>
-      </c>
-      <c r="BQ1" s="1" t="inlineStr">
-        <is>
-          <t>and</t>
-        </is>
-      </c>
-      <c r="BR1" s="1" t="inlineStr">
-        <is>
-          <t>collaborate</t>
-        </is>
-      </c>
-      <c r="BS1" s="1" t="inlineStr">
-        <is>
-          <t>high-school</t>
-        </is>
-      </c>
-      <c r="BT1" s="1" t="inlineStr">
-        <is>
-          <t>illinois</t>
-        </is>
-      </c>
-      <c r="BU1" s="1" t="inlineStr">
-        <is>
-          <t>jacksonville</t>
-        </is>
-      </c>
-      <c r="BV1" s="1" t="inlineStr">
-        <is>
-          <t>macmurray</t>
-        </is>
-      </c>
-      <c r="BW1" s="1" t="inlineStr">
-        <is>
-          <t>program</t>
-        </is>
-      </c>
-      <c r="BX1" s="1" t="inlineStr">
-        <is>
-          <t>english</t>
-        </is>
-      </c>
-      <c r="BY1" s="1" t="inlineStr">
-        <is>
-          <t>senior</t>
-        </is>
-      </c>
-      <c r="BZ1" s="1" t="inlineStr">
-        <is>
-          <t>bright</t>
-        </is>
-      </c>
-      <c r="CA1" s="1" t="inlineStr">
-        <is>
-          <t>cutts</t>
-        </is>
-      </c>
-      <c r="CB1" s="1" t="inlineStr">
-        <is>
-          <t>moseley</t>
-        </is>
-      </c>
-      <c r="CC1" s="1" t="inlineStr">
-        <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="CD1" s="1" t="inlineStr">
-        <is>
-          <t>ne</t>
-        </is>
-      </c>
-      <c r="CE1" s="1" t="inlineStr">
-        <is>
-          <t>teaching</t>
-        </is>
-      </c>
-      <c r="CF1" s="1" t="inlineStr">
-        <is>
-          <t>dehaan</t>
-        </is>
-      </c>
-      <c r="CG1" s="1" t="inlineStr">
-        <is>
-          <t>educating</t>
-        </is>
-      </c>
-      <c r="CH1" s="1" t="inlineStr">
         <is>
           <t>rf</t>
         </is>
@@ -872,25 +772,25 @@
         <v>2498</v>
       </c>
       <c r="D2" t="n">
-        <v>0.49</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>0.25</v>
+        <v>0.44</v>
       </c>
       <c r="F2" t="n">
-        <v>0.39</v>
+        <v>0.44</v>
       </c>
       <c r="G2" t="n">
-        <v>0.39</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="H2" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -1058,66 +958,6 @@
         <v>0</v>
       </c>
       <c r="BN2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1144,34 +984,34 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>0.59</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="K3" t="n">
-        <v>0.37</v>
+        <v>0.59</v>
       </c>
       <c r="L3" t="n">
-        <v>0.27</v>
+        <v>0.34</v>
       </c>
       <c r="M3" t="n">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -1318,66 +1158,6 @@
         <v>0</v>
       </c>
       <c r="BN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1410,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.14</v>
+        <v>0.34</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -1419,10 +1199,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="N4" t="n">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -1434,10 +1214,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0.66</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0.66</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -1578,66 +1358,6 @@
         <v>0</v>
       </c>
       <c r="BN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1670,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -1685,10 +1405,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -1700,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0.6899999999999999</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0.6899999999999999</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1838,66 +1558,6 @@
         <v>0</v>
       </c>
       <c r="BN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1951,34 +1611,34 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.5600000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.5600000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA6" t="n">
         <v>0</v>
@@ -2098,66 +1758,6 @@
         <v>0</v>
       </c>
       <c r="BN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2223,10 +1823,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -2241,16 +1841,16 @@
         <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AE7" t="n">
         <v>0</v>
@@ -2358,66 +1958,6 @@
         <v>0</v>
       </c>
       <c r="BN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2450,7 +1990,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -2462,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -2489,7 +2029,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -2513,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="AF8" t="n">
         <v>0</v>
@@ -2618,66 +2158,6 @@
         <v>0</v>
       </c>
       <c r="BN8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2710,7 +2190,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -2722,7 +2202,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -2752,10 +2232,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="Z9" t="n">
         <v>0</v>
@@ -2776,28 +2256,28 @@
         <v>0</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="AM9" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="AN9" t="n">
         <v>0</v>
@@ -2878,66 +2358,6 @@
         <v>0</v>
       </c>
       <c r="BN9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA9" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB9" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC9" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD9" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE9" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF9" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG9" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2970,7 +2390,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -2985,10 +2405,10 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -3000,10 +2420,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0.6899999999999999</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0.6899999999999999</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -3138,66 +2558,6 @@
         <v>0</v>
       </c>
       <c r="BN10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3278,13 +2638,13 @@
         <v>0</v>
       </c>
       <c r="Z11" t="n">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>0.64</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>0.64</v>
       </c>
       <c r="AC11" t="n">
         <v>0</v>
@@ -3320,16 +2680,16 @@
         <v>0</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.59</v>
+        <v>0</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.59</v>
+        <v>0</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3398,66 +2758,6 @@
         <v>0</v>
       </c>
       <c r="BN11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3538,7 +2838,7 @@
         <v>0</v>
       </c>
       <c r="Z12" t="n">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="AA12" t="n">
         <v>0</v>
@@ -3547,19 +2847,19 @@
         <v>0</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="AH12" t="n">
         <v>0</v>
@@ -3583,7 +2883,7 @@
         <v>0</v>
       </c>
       <c r="AO12" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="AP12" t="n">
         <v>0</v>
@@ -3592,19 +2892,19 @@
         <v>0</v>
       </c>
       <c r="AR12" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="AU12" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="AV12" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="AW12" t="n">
         <v>0</v>
@@ -3658,66 +2958,6 @@
         <v>0</v>
       </c>
       <c r="BN12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA12" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB12" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC12" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD12" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE12" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF12" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG12" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3750,7 +2990,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -3771,10 +3011,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -3786,10 +3026,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -3822,13 +3062,13 @@
         <v>0</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>0.51</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>0.51</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0</v>
+        <v>0.51</v>
       </c>
       <c r="AK13" t="n">
         <v>0</v>
@@ -3840,7 +3080,7 @@
         <v>0</v>
       </c>
       <c r="AN13" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="AO13" t="n">
         <v>0</v>
@@ -3867,13 +3107,13 @@
         <v>0</v>
       </c>
       <c r="AW13" t="n">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="AY13" t="n">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="AZ13" t="n">
         <v>0</v>
@@ -3918,66 +3158,6 @@
         <v>0</v>
       </c>
       <c r="BN13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3995,7 +3175,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -4004,19 +3184,19 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0.31</v>
+        <v>0.33</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -4031,10 +3211,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -4049,7 +3229,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -4091,13 +3271,13 @@
         <v>0</v>
       </c>
       <c r="AK14" t="n">
-        <v>0</v>
+        <v>0.57</v>
       </c>
       <c r="AL14" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AM14" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AN14" t="n">
         <v>0</v>
@@ -4136,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="AZ14" t="n">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="BA14" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="BB14" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="BC14" t="n">
         <v>0</v>
@@ -4178,66 +3358,6 @@
         <v>0</v>
       </c>
       <c r="BN14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4303,10 +3423,10 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -4321,16 +3441,16 @@
         <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AE15" t="n">
         <v>0</v>
@@ -4438,66 +3558,6 @@
         <v>0</v>
       </c>
       <c r="BN15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4530,7 +3590,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -4554,7 +3614,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>0.37</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -4569,10 +3629,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0.52</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -4620,7 +3680,7 @@
         <v>0</v>
       </c>
       <c r="AN16" t="n">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="AO16" t="n">
         <v>0</v>
@@ -4665,7 +3725,7 @@
         <v>0</v>
       </c>
       <c r="BC16" t="n">
-        <v>0.78</v>
+        <v>0</v>
       </c>
       <c r="BD16" t="n">
         <v>0</v>
@@ -4698,66 +3758,6 @@
         <v>0</v>
       </c>
       <c r="BN16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -4805,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -4820,10 +3820,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0.6899999999999999</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0.6899999999999999</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -4958,66 +3958,6 @@
         <v>0</v>
       </c>
       <c r="BN17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5083,10 +4023,10 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -5101,16 +4041,16 @@
         <v>0</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AE18" t="n">
         <v>0</v>
@@ -5218,66 +4158,6 @@
         <v>0</v>
       </c>
       <c r="BN18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5295,13 +4175,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>0.37</v>
       </c>
       <c r="G19" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -5310,7 +4190,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -5352,7 +4232,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -5379,7 +4259,7 @@
         <v>0</v>
       </c>
       <c r="AG19" t="n">
-        <v>0</v>
+        <v>0.37</v>
       </c>
       <c r="AH19" t="n">
         <v>0</v>
@@ -5400,19 +4280,19 @@
         <v>0</v>
       </c>
       <c r="AN19" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="AO19" t="n">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="AP19" t="n">
-        <v>0</v>
+        <v>0.37</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0</v>
+        <v>0.37</v>
       </c>
       <c r="AR19" t="n">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="AS19" t="n">
         <v>0</v>
@@ -5424,7 +4304,7 @@
         <v>0</v>
       </c>
       <c r="AV19" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AW19" t="n">
         <v>0</v>
@@ -5448,16 +4328,16 @@
         <v>0</v>
       </c>
       <c r="BD19" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="BE19" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="BF19" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="BG19" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="BH19" t="n">
         <v>0</v>
@@ -5478,66 +4358,6 @@
         <v>0</v>
       </c>
       <c r="BN19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5570,10 +4390,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -5594,7 +4414,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -5609,7 +4429,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -5675,10 +4495,10 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>0</v>
+        <v>0.68</v>
       </c>
       <c r="AT20" t="n">
-        <v>0</v>
+        <v>0.68</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -5720,16 +4540,16 @@
         <v>0</v>
       </c>
       <c r="BH20" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="BI20" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="BJ20" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="BK20" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="BL20" t="n">
         <v>0</v>
@@ -5738,66 +4558,6 @@
         <v>0</v>
       </c>
       <c r="BN20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5815,22 +4575,22 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>0.49</v>
       </c>
       <c r="F21" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -5941,10 +4701,10 @@
         <v>0</v>
       </c>
       <c r="AU21" t="n">
-        <v>0</v>
+        <v>0.62</v>
       </c>
       <c r="AV21" t="n">
-        <v>0</v>
+        <v>0.62</v>
       </c>
       <c r="AW21" t="n">
         <v>0</v>
@@ -5992,72 +4752,12 @@
         <v>0</v>
       </c>
       <c r="BL21" t="n">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="BM21" t="n">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="BN21" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="BO21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6207,10 +4907,10 @@
         <v>0</v>
       </c>
       <c r="AW22" t="n">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="AX22" t="n">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="AY22" t="n">
         <v>0</v>
@@ -6258,66 +4958,6 @@
         <v>0</v>
       </c>
       <c r="BN22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO22" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="BP22" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="BQ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6335,7 +4975,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -6344,7 +4984,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -6398,7 +5038,7 @@
         <v>0</v>
       </c>
       <c r="Z23" t="n">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="AA23" t="n">
         <v>0</v>
@@ -6443,13 +5083,13 @@
         <v>0</v>
       </c>
       <c r="AO23" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="AP23" t="n">
-        <v>0</v>
+        <v>0.28</v>
       </c>
       <c r="AQ23" t="n">
-        <v>0</v>
+        <v>0.28</v>
       </c>
       <c r="AR23" t="n">
         <v>0</v>
@@ -6473,28 +5113,28 @@
         <v>0</v>
       </c>
       <c r="AY23" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="AZ23" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="BA23" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="BB23" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="BC23" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="BD23" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="BE23" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="BF23" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="BG23" t="n">
         <v>0</v>
@@ -6518,66 +5158,6 @@
         <v>0</v>
       </c>
       <c r="BN23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ23" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="BR23" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="BS23" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="BT23" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="BU23" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="BV23" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="BW23" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="BX23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6595,7 +5175,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -6610,7 +5190,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -6634,7 +5214,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -6649,7 +5229,7 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -6751,10 +5331,10 @@
         <v>0</v>
       </c>
       <c r="BE24" t="n">
-        <v>0</v>
+        <v>0.68</v>
       </c>
       <c r="BF24" t="n">
-        <v>0</v>
+        <v>0.68</v>
       </c>
       <c r="BG24" t="n">
         <v>0</v>
@@ -6778,66 +5358,6 @@
         <v>0</v>
       </c>
       <c r="BN24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX24" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="BY24" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="BZ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6903,10 +5423,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -6921,16 +5441,16 @@
         <v>0</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AE25" t="n">
         <v>0</v>
@@ -7038,66 +5558,6 @@
         <v>0</v>
       </c>
       <c r="BN25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7124,19 +5584,19 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0.21</v>
+        <v>0.24</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -7151,10 +5611,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -7169,7 +5629,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -7277,19 +5737,19 @@
         <v>0</v>
       </c>
       <c r="BG26" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="BH26" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="BI26" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="BJ26" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="BK26" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="BL26" t="n">
         <v>0</v>
@@ -7298,66 +5758,6 @@
         <v>0</v>
       </c>
       <c r="BN26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ26" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="BR26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ26" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="CA26" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="CB26" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="CC26" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="CD26" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="CE26" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="CF26" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG26" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7384,13 +5784,13 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -7402,7 +5802,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -7411,7 +5811,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -7474,10 +5874,10 @@
         <v>0</v>
       </c>
       <c r="AL27" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="AM27" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="AN27" t="n">
         <v>0</v>
@@ -7519,10 +5919,10 @@
         <v>0</v>
       </c>
       <c r="BA27" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="BB27" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="BC27" t="n">
         <v>0</v>
@@ -7552,72 +5952,12 @@
         <v>0</v>
       </c>
       <c r="BL27" t="n">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="BM27" t="n">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="BN27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ27" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA27" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB27" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC27" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD27" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE27" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF27" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="CG27" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="CH27" t="n">
         <v>0.44</v>
       </c>
     </row>
